--- a/biology/Botanique/Montana_(rose)/Montana_(rose).xlsx
+++ b/biology/Botanique/Montana_(rose)/Montana_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Montana' est un cultivar de rosier floribunda obtenu par le rosiériste allemand Mathias Tantau junior en 1974. Il est issu d'un croisement de 'Walzertraum' (1968, Tantau) x 'Europeana'[1].
+'Montana' est un cultivar de rosier floribunda obtenu par le rosiériste allemand Mathias Tantau junior en 1974. Il est issu d'un croisement de 'Walzertraum' (1968, Tantau) x 'Europeana'.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier floribunda se présente sous la forme d'un buisson aux branches droites pouvant atteindre 90 cm de hauteur[1]. Ses fleurs d'un beau rouge vermillon font 7 cm de moyenne en forme de coupe avec un très léger parfum. La floraison en bouquets est exubérante à la fin du printemps, puis s'étale dans une moindre mesure. Cette rose est fort prisée des jardiniers par sa robustesse. Sa zone de rusticité va à 5b (-25 °C).
-La rose 'Montana' doit son nom à la chanson Montana de Frank Zappa parue en 1973 dans l'album Over-Nite Sensation[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier floribunda se présente sous la forme d'un buisson aux branches droites pouvant atteindre 90 cm de hauteur. Ses fleurs d'un beau rouge vermillon font 7 cm de moyenne en forme de coupe avec un très léger parfum. La floraison en bouquets est exubérante à la fin du printemps, puis s'étale dans une moindre mesure. Cette rose est fort prisée des jardiniers par sa robustesse. Sa zone de rusticité va à 5b (-25 °C).
+La rose 'Montana' doit son nom à la chanson Montana de Frank Zappa parue en 1973 dans l'album Over-Nite Sensation.
 La rose 'Ballade' (1994) est un sport de 'Montana'.
 La rose 'Montana' ne doit pas être confondue avec l'églantier des montagnes  (Rosa montana).
 </t>
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>ADR-Rose 1974
 New Zealand Rose Trials - New Zealand Certificate of Merit 1976
